--- a/cloud_scheduling_try_priority.xlsx
+++ b/cloud_scheduling_try_priority.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/genetic_algorithm_cloud_scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB88540-5D52-8E46-A38F-747B50E38749}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A6C1C2-B06B-A74F-99F2-C7355503B3C3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">GA!$C$5:$G$13</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0005</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
@@ -72,8 +72,8 @@
     <definedName name="solver_lhs9" localSheetId="2" hidden="1">GA!$K$13</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.09</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">120</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
@@ -179,7 +179,7 @@
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">3000</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,10 +769,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
@@ -781,7 +781,7 @@
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -795,7 +795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -823,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -858,11 +858,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView zoomScale="177" workbookViewId="0">
-      <selection activeCell="M496" sqref="M496"/>
+    <sheetView topLeftCell="B1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -872,7 +872,7 @@
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>247</v>
       </c>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>29</v>
       </c>
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>170</v>
       </c>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>164</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>312</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>36</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>99</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>30</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>39</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>309</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>469</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>435</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>315</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>423</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>155</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>385</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>321</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>416</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>478</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>259</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>348</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>424</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>207</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>144</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>167</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>300</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>328</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>257</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>175</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>47</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>495</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>371</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>77</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>354</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>446</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>379</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>407</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>409</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>119</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>227</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>307</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>98</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>487</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>438</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>219</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>355</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>277</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>31</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>166</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>97</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>231</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>301</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>408</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>262</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>85</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>210</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>233</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>484</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>194</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>37</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>334</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>380</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>147</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>364</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>5</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>317</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>226</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>339</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>283</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>417</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>483</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>340</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>494</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>437</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>173</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>434</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>243</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>9</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>441</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>250</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>493</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>452</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>368</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>89</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>280</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>195</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>351</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>440</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>453</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>386</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>3</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>168</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>104</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>285</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>109</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>108</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>4</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>17</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>176</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>356</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>133</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>489</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>66</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>88</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>421</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>390</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>475</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>333</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>35</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>239</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>54</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>459</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>76</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>23</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>64</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>126</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>428</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>255</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>174</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>53</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>131</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>234</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>198</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>362</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>253</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>488</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12">
       <c r="A129">
         <v>132</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12">
       <c r="A130">
         <v>326</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12">
       <c r="A131">
         <v>205</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12">
       <c r="A132">
         <v>59</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12">
       <c r="A133">
         <v>400</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12">
       <c r="A134">
         <v>225</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12">
       <c r="A135">
         <v>204</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12">
       <c r="A136">
         <v>358</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12">
       <c r="A137">
         <v>245</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12">
       <c r="A138">
         <v>406</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12">
       <c r="A139">
         <v>78</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12">
       <c r="A140">
         <v>199</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12">
       <c r="A141">
         <v>94</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12">
       <c r="A142">
         <v>117</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12">
       <c r="A143">
         <v>67</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12">
       <c r="A144">
         <v>13</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12">
       <c r="A145">
         <v>404</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12">
       <c r="A146">
         <v>242</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>360</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12">
       <c r="A148">
         <v>447</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12">
       <c r="A149">
         <v>477</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12">
       <c r="A150">
         <v>473</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12">
       <c r="A151">
         <v>490</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>49</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12">
       <c r="A153">
         <v>246</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>276</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12">
       <c r="A155">
         <v>181</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12">
       <c r="A156">
         <v>329</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12">
       <c r="A157">
         <v>229</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12">
       <c r="A158">
         <v>261</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12">
       <c r="A159">
         <v>240</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12">
       <c r="A160">
         <v>90</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12">
       <c r="A161">
         <v>60</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12">
       <c r="A162">
         <v>142</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12">
       <c r="A163">
         <v>349</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12">
       <c r="A164">
         <v>179</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12">
       <c r="A165">
         <v>145</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12">
       <c r="A166">
         <v>465</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12">
       <c r="A167">
         <v>352</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12">
       <c r="A168">
         <v>146</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12">
       <c r="A169">
         <v>367</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12">
       <c r="A170">
         <v>191</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12">
       <c r="A171">
         <v>314</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12">
       <c r="A172">
         <v>185</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>392</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>203</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>482</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>218</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12">
       <c r="A177">
         <v>467</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12">
       <c r="A178">
         <v>101</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12">
       <c r="A179">
         <v>202</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12">
       <c r="A180">
         <v>188</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12">
       <c r="A181">
         <v>62</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12">
       <c r="A182">
         <v>420</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12">
       <c r="A183">
         <v>476</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12">
       <c r="A184">
         <v>42</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12">
       <c r="A185">
         <v>187</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12">
       <c r="A186">
         <v>15</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12">
       <c r="A187">
         <v>308</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12">
       <c r="A188">
         <v>58</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12">
       <c r="A189">
         <v>56</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12">
       <c r="A190">
         <v>254</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12">
       <c r="A191">
         <v>121</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12">
       <c r="A192">
         <v>86</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12">
       <c r="A193">
         <v>426</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12">
       <c r="A194">
         <v>156</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12">
       <c r="A195">
         <v>125</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12">
       <c r="A196">
         <v>150</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12">
       <c r="A197">
         <v>114</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12">
       <c r="A198">
         <v>499</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12">
       <c r="A199">
         <v>221</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12">
       <c r="A200">
         <v>235</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12">
       <c r="A201">
         <v>149</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12">
       <c r="A202">
         <v>93</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12">
       <c r="A203">
         <v>102</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12">
       <c r="A204">
         <v>10</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12">
       <c r="A205">
         <v>129</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12">
       <c r="A206">
         <v>189</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12">
       <c r="A207">
         <v>381</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12">
       <c r="A208">
         <v>123</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12">
       <c r="A209">
         <v>293</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12">
       <c r="A210">
         <v>343</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12">
       <c r="A211">
         <v>79</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12">
       <c r="A212">
         <v>152</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12">
       <c r="A213">
         <v>92</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12">
       <c r="A214">
         <v>463</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12">
       <c r="A215">
         <v>323</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12">
       <c r="A216">
         <v>471</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12">
       <c r="A217">
         <v>322</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12">
       <c r="A218">
         <v>288</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12">
       <c r="A219">
         <v>180</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12">
       <c r="A220">
         <v>396</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12">
       <c r="A221">
         <v>249</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12">
       <c r="A222">
         <v>366</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12">
       <c r="A223">
         <v>290</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12">
       <c r="A224">
         <v>75</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12">
       <c r="A225">
         <v>338</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12">
       <c r="A226">
         <v>370</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12">
       <c r="A227">
         <v>80</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12">
       <c r="A228">
         <v>393</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12">
       <c r="A229">
         <v>107</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12">
       <c r="A230">
         <v>48</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12">
       <c r="A231">
         <v>178</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12">
       <c r="A232">
         <v>20</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12">
       <c r="A233">
         <v>211</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12">
       <c r="A234">
         <v>305</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12">
       <c r="A235">
         <v>177</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12">
       <c r="A236">
         <v>217</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12">
       <c r="A237">
         <v>120</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12">
       <c r="A238">
         <v>375</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12">
       <c r="A239">
         <v>384</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12">
       <c r="A240">
         <v>169</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12">
       <c r="A241">
         <v>172</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12">
       <c r="A242">
         <v>224</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12">
       <c r="A243">
         <v>350</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12">
       <c r="A244">
         <v>442</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12">
       <c r="A245">
         <v>281</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12">
       <c r="A246">
         <v>46</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12">
       <c r="A247">
         <v>63</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12">
       <c r="A248">
         <v>335</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12">
       <c r="A249">
         <v>128</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12">
       <c r="A250">
         <v>405</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12">
       <c r="A251">
         <v>331</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12">
       <c r="A252">
         <v>369</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12">
       <c r="A253">
         <v>70</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12">
       <c r="A254">
         <v>209</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12">
       <c r="A255">
         <v>28</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12">
       <c r="A256">
         <v>299</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12">
       <c r="A257">
         <v>389</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12">
       <c r="A258">
         <v>69</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12">
       <c r="A259">
         <v>492</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12">
       <c r="A260">
         <v>113</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12">
       <c r="A261">
         <v>214</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12">
       <c r="A262">
         <v>65</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12">
       <c r="A263">
         <v>68</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12">
       <c r="A264">
         <v>162</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12">
       <c r="A265">
         <v>486</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12">
       <c r="A266">
         <v>112</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12">
       <c r="A267">
         <v>457</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12">
       <c r="A268">
         <v>252</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12">
       <c r="A269">
         <v>332</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12">
       <c r="A270">
         <v>55</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12">
       <c r="A271">
         <v>464</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12">
       <c r="A272">
         <v>318</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12">
       <c r="A273">
         <v>130</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12">
       <c r="A274">
         <v>33</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12">
       <c r="A275">
         <v>223</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12">
       <c r="A276">
         <v>115</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12">
       <c r="A277">
         <v>345</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12">
       <c r="A278">
         <v>402</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12">
       <c r="A279">
         <v>248</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12">
       <c r="A280">
         <v>311</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12">
       <c r="A281">
         <v>182</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12">
       <c r="A282">
         <v>186</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12">
       <c r="A283">
         <v>103</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12">
       <c r="A284">
         <v>422</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12">
       <c r="A285">
         <v>153</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12">
       <c r="A286">
         <v>1</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12">
       <c r="A287">
         <v>134</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12">
       <c r="A288">
         <v>256</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12">
       <c r="A289">
         <v>84</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12">
       <c r="A290">
         <v>232</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12">
       <c r="A291">
         <v>481</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12">
       <c r="A292">
         <v>451</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12">
       <c r="A293">
         <v>462</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12">
       <c r="A294">
         <v>383</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12">
       <c r="A295">
         <v>313</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12">
       <c r="A296">
         <v>44</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12">
       <c r="A297">
         <v>388</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12">
       <c r="A298">
         <v>310</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12">
       <c r="A299">
         <v>263</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12">
       <c r="A300">
         <v>158</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12">
       <c r="A301">
         <v>12</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12">
       <c r="A302">
         <v>83</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12">
       <c r="A303">
         <v>458</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12">
       <c r="A304">
         <v>411</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12">
       <c r="A305">
         <v>258</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12">
       <c r="A306">
         <v>479</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12">
       <c r="A307">
         <v>270</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12">
       <c r="A308">
         <v>429</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12">
       <c r="A309">
         <v>357</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12">
       <c r="A310">
         <v>91</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12">
       <c r="A311">
         <v>294</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12">
       <c r="A312">
         <v>287</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12">
       <c r="A313">
         <v>397</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12">
       <c r="A314">
         <v>286</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12">
       <c r="A315">
         <v>192</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12">
       <c r="A316">
         <v>11</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12">
       <c r="A317">
         <v>431</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12">
       <c r="A318">
         <v>264</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12">
       <c r="A319">
         <v>472</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12">
       <c r="A320">
         <v>38</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12">
       <c r="A321">
         <v>295</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12">
       <c r="A322">
         <v>337</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12">
       <c r="A323">
         <v>137</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12">
       <c r="A324">
         <v>268</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12">
       <c r="A325">
         <v>154</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12">
       <c r="A326">
         <v>52</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12">
       <c r="A327">
         <v>456</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12">
       <c r="A328">
         <v>106</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12">
       <c r="A329">
         <v>289</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12">
       <c r="A330">
         <v>284</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12">
       <c r="A331">
         <v>399</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12">
       <c r="A332">
         <v>363</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12">
       <c r="A333">
         <v>304</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12">
       <c r="A334">
         <v>378</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12">
       <c r="A335">
         <v>445</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12">
       <c r="A336">
         <v>230</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12">
       <c r="A337">
         <v>208</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12">
       <c r="A338">
         <v>21</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12">
       <c r="A339">
         <v>320</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12">
       <c r="A340">
         <v>140</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12">
       <c r="A341">
         <v>279</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12">
       <c r="A342">
         <v>96</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12">
       <c r="A343">
         <v>273</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12">
       <c r="A344">
         <v>110</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12">
       <c r="A345">
         <v>251</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12">
       <c r="A346">
         <v>292</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12">
       <c r="A347">
         <v>272</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12">
       <c r="A348">
         <v>236</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12">
       <c r="A349">
         <v>439</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12">
       <c r="A350">
         <v>184</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12">
       <c r="A351">
         <v>212</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12">
       <c r="A352">
         <v>34</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>401</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>418</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>298</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>330</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>72</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>116</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>7</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>271</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>266</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>444</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12">
       <c r="A363">
         <v>190</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12">
       <c r="A364">
         <v>244</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>165</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12">
       <c r="A366">
         <v>111</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12">
       <c r="A367">
         <v>454</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>359</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12">
       <c r="A369">
         <v>24</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12">
       <c r="A370">
         <v>57</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12">
       <c r="A371">
         <v>161</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12">
       <c r="A372">
         <v>344</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12">
       <c r="A373">
         <v>346</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12">
       <c r="A374">
         <v>222</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12">
       <c r="A375">
         <v>361</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12">
       <c r="A376">
         <v>324</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12">
       <c r="A377">
         <v>470</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12">
       <c r="A378">
         <v>18</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12">
       <c r="A379">
         <v>143</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12">
       <c r="A380">
         <v>265</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12">
       <c r="A381">
         <v>14</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12">
       <c r="A382">
         <v>374</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12">
       <c r="A383">
         <v>382</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12">
       <c r="A384">
         <v>151</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12">
       <c r="A385">
         <v>118</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12">
       <c r="A386">
         <v>427</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12">
       <c r="A387">
         <v>141</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12">
       <c r="A388">
         <v>32</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12">
       <c r="A389">
         <v>461</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12">
       <c r="A390">
         <v>412</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12">
       <c r="A391">
         <v>395</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12">
       <c r="A392">
         <v>267</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12">
       <c r="A393">
         <v>376</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12">
       <c r="A394">
         <v>22</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12">
       <c r="A395">
         <v>201</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12">
       <c r="A396">
         <v>74</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12">
       <c r="A397">
         <v>278</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12">
       <c r="A398">
         <v>238</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12">
       <c r="A399">
         <v>460</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12">
       <c r="A400">
         <v>6</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12">
       <c r="A401">
         <v>163</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12">
       <c r="A402">
         <v>414</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12">
       <c r="A403">
         <v>394</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12">
       <c r="A404">
         <v>45</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12">
       <c r="A405">
         <v>135</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12">
       <c r="A406">
         <v>480</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12">
       <c r="A407">
         <v>200</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12">
       <c r="A408">
         <v>220</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12">
       <c r="A409">
         <v>19</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12">
       <c r="A410">
         <v>228</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12">
       <c r="A411">
         <v>291</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12">
       <c r="A412">
         <v>136</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12">
       <c r="A413">
         <v>193</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12">
       <c r="A414">
         <v>496</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12">
       <c r="A415">
         <v>449</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12">
       <c r="A416">
         <v>171</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12">
       <c r="A417">
         <v>302</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12">
       <c r="A418">
         <v>413</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12">
       <c r="A419">
         <v>260</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12">
       <c r="A420">
         <v>319</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12">
       <c r="A421">
         <v>237</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12">
       <c r="A422">
         <v>419</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12">
       <c r="A423">
         <v>127</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12">
       <c r="A424">
         <v>336</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12">
       <c r="A425">
         <v>377</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12">
       <c r="A426">
         <v>2</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12">
       <c r="A427">
         <v>27</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12">
       <c r="A428">
         <v>327</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12">
       <c r="A429">
         <v>296</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12">
       <c r="A430">
         <v>372</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12">
       <c r="A431">
         <v>353</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12">
       <c r="A432">
         <v>450</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12">
       <c r="A433">
         <v>430</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12">
       <c r="A434">
         <v>8</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12">
       <c r="A435">
         <v>43</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12">
       <c r="A436">
         <v>51</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12">
       <c r="A437">
         <v>73</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12">
       <c r="A438">
         <v>500</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12">
       <c r="A439">
         <v>491</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12">
       <c r="A440">
         <v>95</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12">
       <c r="A441">
         <v>373</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12">
       <c r="A442">
         <v>50</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12">
       <c r="A443">
         <v>122</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12">
       <c r="A444">
         <v>436</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12">
       <c r="A445">
         <v>71</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12">
       <c r="A446">
         <v>269</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12">
       <c r="A447">
         <v>303</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12">
       <c r="A448">
         <v>100</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12">
       <c r="A449">
         <v>274</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12">
       <c r="A450">
         <v>25</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12">
       <c r="A451">
         <v>474</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12">
       <c r="A452">
         <v>432</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12">
       <c r="A453">
         <v>82</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12">
       <c r="A454">
         <v>498</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12">
       <c r="A455">
         <v>387</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12">
       <c r="A456">
         <v>159</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12">
       <c r="A457">
         <v>425</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12">
       <c r="A458">
         <v>61</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12">
       <c r="A459">
         <v>215</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12">
       <c r="A460">
         <v>448</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12">
       <c r="A461">
         <v>415</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12">
       <c r="A462">
         <v>160</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12">
       <c r="A463">
         <v>282</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12">
       <c r="A464">
         <v>40</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12">
       <c r="A465">
         <v>365</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12">
       <c r="A466">
         <v>87</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12">
       <c r="A467">
         <v>124</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12">
       <c r="A468">
         <v>455</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12">
       <c r="A469">
         <v>443</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12">
       <c r="A470">
         <v>196</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12">
       <c r="A471">
         <v>391</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12">
       <c r="A472">
         <v>398</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12">
       <c r="A473">
         <v>157</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12">
       <c r="A474">
         <v>213</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12">
       <c r="A475">
         <v>241</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12">
       <c r="A476">
         <v>306</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12">
       <c r="A477">
         <v>468</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12">
       <c r="A478">
         <v>275</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12">
       <c r="A479">
         <v>342</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12">
       <c r="A480">
         <v>403</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12">
       <c r="A481">
         <v>497</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12">
       <c r="A482">
         <v>347</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>197</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>316</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>139</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>81</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>485</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>148</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12">
       <c r="A489">
         <v>341</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12">
       <c r="A490">
         <v>16</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12">
       <c r="A491">
         <v>138</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12">
       <c r="A492">
         <v>216</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12">
       <c r="A493">
         <v>183</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12">
       <c r="A494">
         <v>297</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12">
       <c r="A495">
         <v>206</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12">
       <c r="A496">
         <v>26</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12">
       <c r="A497">
         <v>466</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12">
       <c r="A498">
         <v>433</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12">
       <c r="A499">
         <v>410</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12">
       <c r="A500">
         <v>41</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12">
       <c r="A501">
         <v>325</v>
       </c>
@@ -14411,10 +14411,10 @@
   <dimension ref="A3:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
@@ -14424,7 +14424,7 @@
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="16">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -14458,33 +14458,33 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="16">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G5" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP(C$5,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP(D$5,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP(E$5,Jobs!$J$2:'Jobs'!$L$501,3)</f>
@@ -14496,26 +14496,26 @@
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP(G$5,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="9">
         <v>31</v>
       </c>
       <c r="D6" s="9">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F6" s="9">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G6" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP(C$6,Jobs!$J$2:'Jobs'!$L$501,3)</f>
@@ -14538,25 +14538,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="16">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
         <v>30</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1">
-        <v>36</v>
       </c>
       <c r="K7" s="1">
         <f>VLOOKUP(C$7,Jobs!$J$2:'Jobs'!$L$501,3)</f>
@@ -14564,7 +14564,7 @@
       </c>
       <c r="L7" s="1">
         <f>VLOOKUP(D$7,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" s="1">
         <f>VLOOKUP(E$7,Jobs!$J$2:'Jobs'!$L$501,3)</f>
@@ -14576,38 +14576,38 @@
       </c>
       <c r="O7" s="1">
         <f>VLOOKUP(G$7,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1">
-        <v>7.0000000000000009</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1">
         <f>VLOOKUP(C$8,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
         <f>VLOOKUP(D$8,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
         <f>VLOOKUP(E$8,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" s="1">
         <f>VLOOKUP(F$8,Jobs!$J$2:'Jobs'!$L$501,3)</f>
@@ -14615,26 +14615,26 @@
       </c>
       <c r="O8" s="1">
         <f>VLOOKUP(G$8,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>29</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K9" s="1">
         <f>VLOOKUP(C$9,Jobs!$J$2:'Jobs'!$L$501,3)</f>
@@ -14650,40 +14650,40 @@
       </c>
       <c r="N9" s="1">
         <f>VLOOKUP(F$9,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
         <f>VLOOKUP(G$9,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E10" s="9">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9">
+        <v>43</v>
+      </c>
+      <c r="G10" s="9">
         <v>39</v>
-      </c>
-      <c r="F10" s="9">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9">
-        <v>6</v>
       </c>
       <c r="K10" s="9">
         <f>VLOOKUP(C$10,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="9">
         <f>VLOOKUP(D$10,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="9">
         <f>VLOOKUP(E$10,Jobs!$J$2:'Jobs'!$L$501,3)</f>
@@ -14691,77 +14691,77 @@
       </c>
       <c r="N10" s="9">
         <f>VLOOKUP(F$10,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="9">
         <f>VLOOKUP(G$10,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16">
       <c r="C11" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="9">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F11" s="9">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G11" s="9">
-        <v>27</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="K11" s="9">
         <f>VLOOKUP(C$11,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="9">
         <f>VLOOKUP(D$11,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="9">
         <f>VLOOKUP(E$11,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="9">
         <f>VLOOKUP(F$11,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="9">
         <f>VLOOKUP(G$11,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16">
       <c r="C12" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D12" s="9">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E12" s="9">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F12" s="9">
         <v>24</v>
       </c>
       <c r="G12" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="K12" s="9">
         <f>VLOOKUP(C$12,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="9">
         <f>VLOOKUP(D$12,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" s="9">
         <f>VLOOKUP(E$12,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="9">
         <f>VLOOKUP(F$12,Jobs!$J$2:'Jobs'!$L$501,3)</f>
@@ -14769,74 +14769,74 @@
       </c>
       <c r="O12" s="9">
         <f>VLOOKUP(G$12,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16">
       <c r="C13" s="9">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E13" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K13" s="9">
         <f>VLOOKUP(C$13,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" s="9">
         <f>VLOOKUP(D$13,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13" s="9">
         <f>VLOOKUP(E$13,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="9">
         <f>VLOOKUP(F$13,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="9">
         <f>VLOOKUP(G$13,Jobs!$J$2:'Jobs'!$L$501,3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="16">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="16">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -14844,19 +14844,19 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <f>VLOOKUP(D5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.1399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E19" s="1">
         <f>VLOOKUP(E5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.8</v>
+        <v>0.15</v>
       </c>
       <c r="F19" s="1">
         <f>VLOOKUP(F5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.78</v>
+        <v>1.53</v>
       </c>
       <c r="G19" s="1">
         <f>VLOOKUP(G5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.61</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="1">
         <f>VLOOKUP(C6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
@@ -14864,73 +14864,73 @@
       </c>
       <c r="I19" s="1">
         <f>VLOOKUP(D6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="J19" s="1">
         <f>VLOOKUP(E6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="K19" s="1">
         <f>VLOOKUP(F6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>3.21</v>
+        <v>2.17</v>
       </c>
       <c r="L19" s="1">
         <f>VLOOKUP(G6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="1">
         <f>VLOOKUP(C$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.92</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D20" s="1">
         <f>VLOOKUP(D$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.67</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E20" s="1">
         <f>VLOOKUP(E$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.1</v>
+        <v>2.79</v>
       </c>
       <c r="F20" s="1">
         <f>VLOOKUP(F$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.3</v>
+        <v>3.21</v>
       </c>
       <c r="G20" s="1">
         <f>VLOOKUP(G$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.26</v>
+        <v>1.67</v>
       </c>
       <c r="H20" s="1">
         <f>VLOOKUP(C$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.44</v>
+        <v>2.5</v>
       </c>
       <c r="I20" s="1">
         <f>VLOOKUP(D$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.95</v>
+        <v>1.93</v>
       </c>
       <c r="J20" s="1">
         <f>VLOOKUP(E$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.17</v>
+        <v>2.87</v>
       </c>
       <c r="K20" s="1">
         <f>VLOOKUP(F$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.89</v>
+        <v>0.71</v>
       </c>
       <c r="L20" s="1">
         <f>VLOOKUP(G$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.92</v>
+        <v>0.78</v>
       </c>
       <c r="M20" s="1">
         <f>VLOOKUP(C$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.56</v>
+        <v>0.75</v>
       </c>
       <c r="N20" s="1">
         <f>VLOOKUP(D$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.79</v>
+        <v>1.44</v>
       </c>
       <c r="O20" s="1">
         <f>VLOOKUP(E$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
@@ -14938,25 +14938,25 @@
       </c>
       <c r="P20" s="1">
         <f>VLOOKUP(F$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.93</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q20" s="1">
         <f>VLOOKUP(G$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="1">
         <f>VLOOKUP(C$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
-        <v>2.87</v>
+        <v>1.67</v>
       </c>
       <c r="D21" s="1">
         <f>VLOOKUP(D$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
-        <v>1.53</v>
+        <v>3.74</v>
       </c>
       <c r="E21" s="1">
         <f>VLOOKUP(E$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
@@ -14964,43 +14964,43 @@
       </c>
       <c r="F21" s="1">
         <f>VLOOKUP(F$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
-        <v>3.74</v>
+        <v>1.67</v>
       </c>
       <c r="G21" s="1">
         <f>VLOOKUP(G$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="H21" s="1">
         <f>VLOOKUP(C$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.4900000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="I21" s="1">
         <f>VLOOKUP(D$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>3.57</v>
+        <v>3.04</v>
       </c>
       <c r="J21" s="1">
         <f>VLOOKUP(E$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.99</v>
+        <v>1.07</v>
       </c>
       <c r="K21" s="1">
         <f>VLOOKUP(F$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.56</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="1">
         <f>VLOOKUP(G$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.1000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="M21" s="1">
         <f>VLOOKUP(C$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>3.5</v>
+        <v>1.06</v>
       </c>
       <c r="N21" s="1">
         <f>VLOOKUP(D$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="O21" s="1">
         <f>VLOOKUP(E$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="P21" s="1">
         <f>VLOOKUP(F$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
@@ -15008,31 +15008,31 @@
       </c>
       <c r="Q21" s="1">
         <f>VLOOKUP(G$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.1100000000000001</v>
+        <v>2.56</v>
       </c>
       <c r="R21" s="1">
         <f>VLOOKUP(C$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.42</v>
+        <v>3.57</v>
       </c>
       <c r="S21" s="1">
         <f>VLOOKUP(D$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.06</v>
+        <v>1.92</v>
       </c>
       <c r="T21" s="1">
         <f>VLOOKUP(E$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>0.75</v>
+        <v>2.57</v>
       </c>
       <c r="U21" s="1">
         <f>VLOOKUP(F$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>1.1599999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V21" s="1">
         <f>VLOOKUP(G$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
-        <v>3.44</v>
+        <v>1.31</v>
       </c>
       <c r="W21" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="16">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
@@ -15045,67 +15045,67 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="16">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="1">
         <f>SUM(C19:L19)</f>
-        <v>11.32</v>
+        <v>13.71</v>
       </c>
       <c r="D25" s="1">
         <f>C25/Resources!B2</f>
-        <v>11.32</v>
+        <v>13.71</v>
       </c>
       <c r="E25" s="1">
         <f>D25*Resources!C2</f>
-        <v>0.11320000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="1">
         <f>SUM(C20:Q20)</f>
-        <v>26.209999999999997</v>
+        <v>27.67</v>
       </c>
       <c r="D26" s="1">
         <f>C26/Resources!B3</f>
-        <v>13.104999999999999</v>
+        <v>13.835000000000001</v>
       </c>
       <c r="E26" s="1">
         <f>D26*Resources!C3</f>
-        <v>0.2621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="1">
         <f>SUM(C21:V21)</f>
-        <v>39.76</v>
+        <v>35.07</v>
       </c>
       <c r="D27" s="1">
         <f>C27/Resources!B4</f>
-        <v>13.253333333333332</v>
+        <v>11.69</v>
       </c>
       <c r="E27" s="1">
         <f>D27*Resources!C4</f>
-        <v>0.33133333333333331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.29225000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29">
         <f>SUM(E25:E28)</f>
-        <v>0.70663333333333334</v>
+        <v>0.70605000000000007</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
@@ -15114,23 +15114,23 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30">
         <f>SUM(D25:D27)</f>
-        <v>37.678333333333327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>39.234999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="16">
       <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6">
         <f>E30</f>
-        <v>37.678333333333327</v>
+        <v>39.234999999999999</v>
       </c>
     </row>
   </sheetData>
